--- a/core/utils/distgradeunificadaLONDRINA.xlsx
+++ b/core/utils/distgradeunificadaLONDRINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F570BAC8-4DE1-4850-81D9-C6979964AE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4522F51-B7B1-4179-9E65-D4CACA21FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -871,8 +871,8 @@
   <dimension ref="A1:S268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaLONDRINA.xlsx
+++ b/core/utils/distgradeunificadaLONDRINA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF27C5D-867D-4BA4-ACBF-3A68F3010C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA95BB6-91B1-4FF4-928E-8211A137DFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1976,8 +1976,8 @@
   <dimension ref="A1:S292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q286" sqref="Q286"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H297" sqref="H297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaLONDRINA.xlsx
+++ b/core/utils/distgradeunificadaLONDRINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA95BB6-91B1-4FF4-928E-8211A137DFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050F55E-B688-4329-B1C5-1F5A380713A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1976,8 +1976,8 @@
   <dimension ref="A1:S292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H297" sqref="H297"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaLONDRINA.xlsx
+++ b/core/utils/distgradeunificadaLONDRINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050F55E-B688-4329-B1C5-1F5A380713A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC557209-3343-4D5B-AD4C-89499EDE5863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1976,8 +1976,8 @@
   <dimension ref="A1:S292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K294" sqref="K294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaLONDRINA.xlsx
+++ b/core/utils/distgradeunificadaLONDRINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC557209-3343-4D5B-AD4C-89499EDE5863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFD419B-0411-46AB-9A19-9181B9968EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1977,7 +1977,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K294" sqref="K294"/>
+      <selection pane="bottomLeft" activeCell="P289" sqref="P289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
